--- a/biology/Médecine/Jeanne_Quint_Benoliel/Jeanne_Quint_Benoliel.xlsx
+++ b/biology/Médecine/Jeanne_Quint_Benoliel/Jeanne_Quint_Benoliel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne Quint Benoliel, née le 9 décembre 1919 à National City en Californie et morte le 23 janvier 2012, est une infirmière américaine qui a étudié le rôle des soins palliatifs infirmiers. Elle a créé un programme doctoral à l'école de soins infirmiers de l'université de Washington.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoliel a commencé ses études supérieures à l'université de Californie à San Diego et au San Diego State College[1]. Elle est diplômée en soins infirmiers en 1941 au St. Luke's Hospital à San Francisco, puis obtient une licence à l'université d'État de l'Oregon en 1948[2]. Elle travaille au service du corps infirmier de l'armée américaine en Nouvelle-Guinée et aux Philippines[3]. Elle obtient une maîtrise de soins infirmiers à l'université de Californie à Los Angeles en 1955, puis elle effectue une formation de post-master en physiologie et en statistiques[4],[5],[2]. En 1969, elle réalise un doctorat en sciences infirmières (DNSc) avec une spécialisation en sociologie et soins infirmiers à l'université de San Francisco[2],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoliel a commencé ses études supérieures à l'université de Californie à San Diego et au San Diego State College. Elle est diplômée en soins infirmiers en 1941 au St. Luke's Hospital à San Francisco, puis obtient une licence à l'université d'État de l'Oregon en 1948. Elle travaille au service du corps infirmier de l'armée américaine en Nouvelle-Guinée et aux Philippines. Elle obtient une maîtrise de soins infirmiers à l'université de Californie à Los Angeles en 1955, puis elle effectue une formation de post-master en physiologie et en statistiques. En 1969, elle réalise un doctorat en sciences infirmières (DNSc) avec une spécialisation en sociologie et soins infirmiers à l'université de San Francisco,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle commence sa carrière universitaire, en 1969 et 1970, comme enseignante dans les universités californiennes de Los Angeles et de San Francisco[2],[6]. Elle fonde un programme de doctorat (le « Ph. D. program ») à l'école des sciences infirmières de l'université de Washington[7]. Elle est la première titulaire de la chaire « Elizabeth Sterling Soule »[8],[9]. Elle est responsable d'un projet connu sous le nom de services de transition, programme qui est centré sur les soins infirmiers apportés aux patients atteints de cancer en phase terminale[5],[10]. Elle crée un fonds à l'université de Washington destiné aux étudiants en doctorat dont le sujet concerne des questions liées à la fin de vie[7]. Aux côtés de Ruth McClorke, Benoliel établit un système d'échelle permettant de mesurer les effets négatifs, tant symptomatiques que fonctionnels, engendrés par les traitements sur les patients atteints du cancer[11]. Ultérieurement, ce système de mesure est totalement validé et adopté[11].
-Benoliel publie six livres et est la première infirmière à accéder à la fonction de présidente du groupe international de travail sur la mort et le deuil[10]. En 1976, elle est conférencière invitée au 3e congrès annuel « Alexander Ming Fisher » sur la mort au Centre médical de l'université Columbia[8],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle commence sa carrière universitaire, en 1969 et 1970, comme enseignante dans les universités californiennes de Los Angeles et de San Francisco,. Elle fonde un programme de doctorat (le « Ph. D. program ») à l'école des sciences infirmières de l'université de Washington. Elle est la première titulaire de la chaire « Elizabeth Sterling Soule »,. Elle est responsable d'un projet connu sous le nom de services de transition, programme qui est centré sur les soins infirmiers apportés aux patients atteints de cancer en phase terminale,. Elle crée un fonds à l'université de Washington destiné aux étudiants en doctorat dont le sujet concerne des questions liées à la fin de vie. Aux côtés de Ruth McClorke, Benoliel établit un système d'échelle permettant de mesurer les effets négatifs, tant symptomatiques que fonctionnels, engendrés par les traitements sur les patients atteints du cancer. Ultérieurement, ce système de mesure est totalement validé et adopté.
+Benoliel publie six livres et est la première infirmière à accéder à la fonction de présidente du groupe international de travail sur la mort et le deuil. En 1976, elle est conférencière invitée au 3e congrès annuel « Alexander Ming Fisher » sur la mort au Centre médical de l'université Columbia,.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1983 : prix « Helen Nahm Research Lecture »[13].
-2000 : « Légende vivante de l'Académie américaine des sciences infirmières »[14].
-2002 : Lauréate du Lifetime Achievement Award de la société de soins infirmiers en oncologie (en)[15].
-2002 : docteur honoris causa en sciences médicales de l'université Yale[16],[17].
-2008 : prix Leading the Way de la Hospice &amp; Palliative Nurses Association[18],[19].
-docteur honoris causa de l'université de San Diego et de l'université de Pennsylvanie[20],[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1983 : prix « Helen Nahm Research Lecture ».
+2000 : « Légende vivante de l'Académie américaine des sciences infirmières ».
+2002 : Lauréate du Lifetime Achievement Award de la société de soins infirmiers en oncologie (en).
+2002 : docteur honoris causa en sciences médicales de l'université Yale,.
+2008 : prix Leading the Way de la Hospice &amp; Palliative Nurses Association,.
+docteur honoris causa de l'université de San Diego et de l'université de Pennsylvanie,.</t>
         </is>
       </c>
     </row>
@@ -609,9 +627,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette liste, non exhaustive, a pour objectif de récapituler les principales publications de l'infirmière américaine[21] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette liste, non exhaustive, a pour objectif de récapituler les principales publications de l'infirmière américaine :
 (en) « Talking to patients about death. », Nursing Forum, vol. 9, no 3,‎ 1970, p. 254-268 (DOI 10.1111/j.1744-6198.1970.tb00450.x).
 (en) « Assessments of loss and grief », Journal of Thanology, no 1,‎ 1971, p. 182-194.
 (en) « The dying patient : A nursing dilemma. », Washington State Journal of Nursing, vol. 43, no 1,‎ 1971, p. 3-4.
